--- a/biology/Botanique/Madame_Bérard/Madame_Bérard.xlsx
+++ b/biology/Botanique/Madame_Bérard/Madame_Bérard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Madame_B%C3%A9rard</t>
+          <t>Madame_Bérard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Bérard' est un cultivar de rosier obtenu en 1872 par le rosiériste lyonnais Antoine Levet. Il est issu du croisement 'Madame Falcot' (Guillot, 1858) x 'Gloire de Dijon' (Jacotot, 1850)[2]. Il était aussi cultivé à la fin du XIXe siècle et à la Belle Époque pour le forçage en serre[3].
+'Madame Bérard' est un cultivar de rosier obtenu en 1872 par le rosiériste lyonnais Antoine Levet. Il est issu du croisement 'Madame Falcot' (Guillot, 1858) x 'Gloire de Dijon' (Jacotot, 1850). Il était aussi cultivé à la fin du XIXe siècle et à la Belle Époque pour le forçage en serre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Madame_B%C3%A9rard</t>
+          <t>Madame_Bérard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce petit rosier grimpant épineux, au feuillage vert moyen, peut s'élever à 3 mètres. Il présente de grandes fleurs pleines et parfumées[4], au coloris jaune chamoisé aux nuances cuivrées très délicates[5]. La floraison est fort remontante[2],[6].
-Il s'agit d'un grimpant rustique qui croît énergiquement et dont la zone de rusticité est de 6b à 9b, donc résistant au froid à -20°[7]. Il est dédié à l'épouse d'un ami lyonnais de l'obtenteur[5], mère du futur chirurgien Léon Bérard[8] et du futur ambassadeur Victor Bérard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce petit rosier grimpant épineux, au feuillage vert moyen, peut s'élever à 3 mètres. Il présente de grandes fleurs pleines et parfumées, au coloris jaune chamoisé aux nuances cuivrées très délicates. La floraison est fort remontante,.
+Il s'agit d'un grimpant rustique qui croît énergiquement et dont la zone de rusticité est de 6b à 9b, donc résistant au froid à -20°. Il est dédié à l'épouse d'un ami lyonnais de l'obtenteur, mère du futur chirurgien Léon Bérard et du futur ambassadeur Victor Bérard.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Madame_B%C3%A9rard</t>
+          <t>Madame_Bérard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Madame Bérard' a servi à l'hybridation de nombreuses variétés dont 'Reine Marie-Henriette' (Levet, 1875) par croisement avec 'Général Jacqueminot' (Roussel, 1853) ; le fameux 'Madame Eugène Verdier' (Levet, 1882) par croisement avec 'Madame Falcot' (Guillot, 1858) ; 'Madame Chauvry' (Bonnaire[9], 1883) par croisement avec 'William Allen Richardson' (Veuve Ducher, 1878), 'Parc de Maupassant' (Massad, 2007) par croisement avec Rosa filipes[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Madame Bérard' a servi à l'hybridation de nombreuses variétés dont 'Reine Marie-Henriette' (Levet, 1875) par croisement avec 'Général Jacqueminot' (Roussel, 1853) ; le fameux 'Madame Eugène Verdier' (Levet, 1882) par croisement avec 'Madame Falcot' (Guillot, 1858) ; 'Madame Chauvry' (Bonnaire, 1883) par croisement avec 'William Allen Richardson' (Veuve Ducher, 1878), 'Parc de Maupassant' (Massad, 2007) par croisement avec Rosa filipes.
 </t>
         </is>
       </c>
